--- a/AAII_Financials/Quarterly/VSTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSTR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>VSTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -748,7 +752,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,8 +798,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -800,22 +807,25 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -824,13 +834,13 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,8 +961,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -954,22 +974,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,8 +1014,8 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1004,10 +1027,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1045,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1055,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1043,37 +1070,40 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1084,19 +1114,22 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1172,23 +1209,26 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,23 +1265,26 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1249,22 +1292,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,23 +1388,26 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1363,37 +1415,40 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1401,22 +1456,25 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,23 +1675,26 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1629,22 +1702,25 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,23 +1757,26 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1705,65 +1784,71 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1880,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1902,14 +1995,17 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,7 +2054,7 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +2095,7 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2002,43 +2104,46 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
@@ -2054,14 +2159,17 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,46 +2206,52 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,17 +2329,20 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,25 +2411,28 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2318,7 +2444,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,7 +2539,7 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2423,27 +2557,30 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1900</v>
       </c>
       <c r="N58" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -2452,10 +2589,10 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -2464,16 +2601,19 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2481,7 +2621,7 @@
         <v>1600</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -2499,19 +2639,22 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
@@ -2543,13 +2686,16 @@
         <v>1000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2855,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2727,19 +2885,22 @@
         <v>1600</v>
       </c>
       <c r="K66" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L66" s="3">
         <v>1800</v>
       </c>
       <c r="M66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,22 +3077,25 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-3700</v>
       </c>
       <c r="H72" s="3">
         <v>-3700</v>
@@ -2939,13 +3113,16 @@
         <v>-3700</v>
       </c>
       <c r="M72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,22 +3241,25 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1500</v>
       </c>
       <c r="H76" s="3">
         <v>-1500</v>
@@ -3085,19 +3271,22 @@
         <v>-1500</v>
       </c>
       <c r="K76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2600</v>
       </c>
       <c r="N76" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,66 +3323,72 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3201,22 +3396,25 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3267,10 +3466,13 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>VSTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,91 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -755,7 +758,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +807,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
@@ -810,25 +816,28 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -837,13 +846,13 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,13 +966,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -964,8 +983,8 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -977,22 +996,25 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1039,8 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1030,10 +1052,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,19 +1071,20 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1073,40 +1099,43 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1117,19 +1146,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,13 +1177,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1212,23 +1248,26 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,26 +1307,29 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1295,27 +1337,30 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,26 +1439,29 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1418,40 +1469,43 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1459,22 +1513,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,13 +1703,16 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1678,26 +1747,29 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1705,22 +1777,25 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,26 +1835,29 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1787,68 +1865,74 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1998,14 +2090,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,19 +2140,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2086,19 +2184,22 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2107,46 +2208,49 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
@@ -2162,14 +2266,17 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,23 +2345,26 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,20 +2448,23 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,28 +2536,31 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2447,7 +2572,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,7 +2675,7 @@
         <v>1100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2560,19 +2693,22 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1900</v>
       </c>
       <c r="O58" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2580,10 +2716,10 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2592,10 +2728,10 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -2604,27 +2740,30 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1600</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
@@ -2642,19 +2781,22 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
+        <v>800</v>
+      </c>
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
@@ -2689,13 +2831,16 @@
         <v>1000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,13 +3012,16 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="3">
         <v>1600</v>
@@ -2888,19 +3045,22 @@
         <v>1600</v>
       </c>
       <c r="L66" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M66" s="3">
         <v>1800</v>
       </c>
       <c r="N66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,25 +3250,28 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-3700</v>
       </c>
       <c r="I72" s="3">
         <v>-3700</v>
@@ -3116,13 +3289,16 @@
         <v>-3700</v>
       </c>
       <c r="N72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-3900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,25 +3426,28 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1500</v>
       </c>
       <c r="I76" s="3">
         <v>-1500</v>
@@ -3274,19 +3459,22 @@
         <v>-1500</v>
       </c>
       <c r="L76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2600</v>
       </c>
       <c r="O76" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,72 +3514,78 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3399,22 +3593,25 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,10 +3667,13 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
